--- a/biology/Médecine/Lithotripsie/Lithotripsie.xlsx
+++ b/biology/Médecine/Lithotripsie/Lithotripsie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lithotripsie ou lithotritie (du grec λίθος (lithos), « pierre » et du latin terere « broyer ») est l'ensemble des techniques utilisées pour éliminer des calculs (rénaux, vésicaux ou biliaires et lithiases salivaires) ou des calcifications (artères coronaires).
-Jean-Jacques-Joseph Leroy d'Etiolles construit le premier lithotriteur et, en 1823, le docteur Jean Civiale l'applique avec succès sur le vivant. En 1860, Henri-Ferdinand Dolbeau est chargé de suppléer Civiale dans le service des calculeux à l'hôpital Necker. Initié aux difficultés de la thérapeutique des voies génito-urinaires, il exécute sur cette partie des connaissances chirurgicales une série de travaux, récompensé par la faculté en 1863. Son nom est associé à la lithotripsie de Dolbeau ou lithotripsie périnéale[1]. François Fournier de Lempdes (1783-1861) est aussi crédité comme « inventeur de la lithotritie »[2].
+Jean-Jacques-Joseph Leroy d'Etiolles construit le premier lithotriteur et, en 1823, le docteur Jean Civiale l'applique avec succès sur le vivant. En 1860, Henri-Ferdinand Dolbeau est chargé de suppléer Civiale dans le service des calculeux à l'hôpital Necker. Initié aux difficultés de la thérapeutique des voies génito-urinaires, il exécute sur cette partie des connaissances chirurgicales une série de travaux, récompensé par la faculté en 1863. Son nom est associé à la lithotripsie de Dolbeau ou lithotripsie périnéale. François Fournier de Lempdes (1783-1861) est aussi crédité comme « inventeur de la lithotritie ».
 Cette intervention, qui fut très pratiquée, vit ses indications devenir beaucoup moins fréquentes avec les progrès de la chirurgie prostatique et vésicale.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Types d'interventions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ces différentes interventions sont :
 La lithotritie extracorporelle (LEC) et lithotritie intracorporelle (LIC).</t>
@@ -544,14 +558,16 @@
           <t>Les différentes techniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ont été développées :
 la lithotritie mécanique ;
 la lithotritie ultrasonique ;
 la lithotritie électrohydraulique ;
-la lithotritie par ondes laser[3],[4].
-La lithotritie endovasculaire consiste en une procédure d'angioplastie avec un ballon muni d'émetteurs ultrasoniques[5]. Elle peut être appliquée dans le traitement des lésions très calcifiées des artères coronaires en appoint[6].
+la lithotritie par ondes laser,.
+La lithotritie endovasculaire consiste en une procédure d'angioplastie avec un ballon muni d'émetteurs ultrasoniques. Elle peut être appliquée dans le traitement des lésions très calcifiées des artères coronaires en appoint.
 </t>
         </is>
       </c>
